--- a/题库/马原在线题库版.xlsx
+++ b/题库/马原在线题库版.xlsx
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
